--- a/src/public/statistics/thong-ke-top-khoa-hoc.xlsx
+++ b/src/public/statistics/thong-ke-top-khoa-hoc.xlsx
@@ -375,124 +375,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>BẢNG THỐNG KÊ TOP 5 KHOÁ HỌC CÓ SỐ LƯỢNG BÁN TRONG NĂM 2022</v>
+        <v>BẢNG THỐNG KÊ TOP 5 KHOÁ HỌC CÓ SỐ LƯỢNG BÁN TRONG THÁNG 6-2022</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Tháng</v>
+        <v>Top</v>
       </c>
       <c r="B2" t="str">
-        <v>Top 1</v>
+        <v>Khoá học</v>
       </c>
       <c r="C2" t="str">
-        <v>Top 2</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Top 3</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Top 4</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Top 5</v>
+        <v>Số lượng bán</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Tháng 1</v>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>=HYPERLINK("https://www.course-ecommerce.tk/courses/master-the-academic-word-list-improve-your-academic-english","Master the Academic Word List: Improve Your Academic English" )</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Tháng 2</v>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>=HYPERLINK("https://www.course-ecommerce.tk/courses/fluent-grammar-for-ielts-speaking","Fluent Grammar for IELTS Speaking" )</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>Tháng 3</v>
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>=HYPERLINK("https://www.course-ecommerce.tk/courses/toeic-listening-and-reading-tests","TOEIC Listening and Reading Tests" )</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>Tháng 4</v>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>=HYPERLINK("https://www.course-ecommerce.tk/courses/toeic-preparation-course","TOEIC Preparation Course" )</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>Tháng 5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Tháng 6</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Master the Academic Word List: Improve Your Academic English. Số lượng:3</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Fluent Grammar for IELTS Speaking. Số lượng:3</v>
-      </c>
-      <c r="D8" t="str">
-        <v>TOEIC Listening and Reading Tests. Số lượng:2</v>
-      </c>
-      <c r="E8" t="str">
-        <v>TOEIC Preparation Course. Số lượng:2</v>
-      </c>
-      <c r="F8" t="str">
-        <v>200 Advanced English Vocabulary. Số lượng:1</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Learn English | Master TOEIC Listening test. Số lượng:1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>100 idioms for TOEFL, TOEIC, FCE or CAE. Số lượng:1</v>
-      </c>
-      <c r="I8" t="str">
-        <v>TOEIC Speaking and Writing Preparation Course. Số lượng:1</v>
-      </c>
-      <c r="J8" t="str">
-        <v>TOEIC Idioms + 1,000 TOEIC Vocabulary Crossword Puzzles. Số lượng:1</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Mastering IELTS Writing: Task 2 (Band 9 Model Answers). Số lượng:1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Tháng 7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Tháng 8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Tháng 9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Tháng 10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Tháng 11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Tháng 12</v>
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>=HYPERLINK("https://www.course-ecommerce.tk/courses/mastering-ielts-writing-task-2-band-9-model-answers","Mastering IELTS Writing: Task 2 (Band 9 Model Answers)" )</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -500,7 +456,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>